--- a/Input data python file.xlsx
+++ b/Input data python file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vanoord01-my.sharepoint.com/personal/mark_vankoningsveld_vanoord_com/Documents/Software/github/OpenSCSim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{AF2B1529-24A6-4084-AA78-3BD1A991949E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{561FAB2E-1604-4A98-BFE7-F745ABF3D869}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{AF2B1529-24A6-4084-AA78-3BD1A991949E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E950C63E-5AC7-4C8D-849D-AB30A210BF76}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B597A6C5-A3EB-4208-8E39-4B22909E4179}"/>
+    <workbookView minimized="1" xWindow="2580" yWindow="910" windowWidth="16970" windowHeight="9580" xr2:uid="{B597A6C5-A3EB-4208-8E39-4B22909E4179}"/>
   </bookViews>
   <sheets>
     <sheet name="Python test sheet" sheetId="10" r:id="rId1"/>
@@ -1198,13 +1198,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FDB80145-A0A4-43B5-8690-0FA5DC0E23DE}" name="Inputs" displayName="Inputs" ref="B3:H282" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="B3:H282" xr:uid="{FDB80145-A0A4-43B5-8690-0FA5DC0E23DE}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Foundations"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B3:H282" xr:uid="{FDB80145-A0A4-43B5-8690-0FA5DC0E23DE}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{B91D90CA-CCCF-4E99-A253-FDCE789236B8}" name="Category" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{21DF758D-5E85-4CE3-9979-C81EECFC6597}" name="Sub-system" dataDxfId="5"/>
@@ -1517,7 +1511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B03E5E3-DD2E-40F1-B94C-6539AC95E45A}">
   <dimension ref="B2:H282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B165" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -2045,7 +2039,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" s="6" t="s">
         <v>7</v>
       </c>
@@ -2068,7 +2062,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" s="6" t="s">
         <v>7</v>
       </c>
@@ -2091,7 +2085,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27" s="6" t="s">
         <v>7</v>
       </c>
@@ -2114,7 +2108,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B28" s="6" t="s">
         <v>7</v>
       </c>
@@ -2137,7 +2131,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B29" s="6" t="s">
         <v>7</v>
       </c>
@@ -2160,7 +2154,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B30" s="6" t="s">
         <v>7</v>
       </c>
@@ -2183,7 +2177,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B31" s="6" t="s">
         <v>7</v>
       </c>
@@ -2206,7 +2200,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B32" s="6" t="s">
         <v>7</v>
       </c>
@@ -2229,7 +2223,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B33" s="6" t="s">
         <v>7</v>
       </c>
@@ -2252,7 +2246,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B34" s="6" t="s">
         <v>7</v>
       </c>
@@ -2275,7 +2269,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B35" s="6" t="s">
         <v>7</v>
       </c>
@@ -2298,7 +2292,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B36" s="6" t="s">
         <v>7</v>
       </c>
@@ -2321,7 +2315,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B37" s="6" t="s">
         <v>7</v>
       </c>
@@ -2344,7 +2338,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B38" s="6" t="s">
         <v>7</v>
       </c>
@@ -2367,7 +2361,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B39" s="6" t="s">
         <v>7</v>
       </c>
@@ -2390,7 +2384,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B40" s="6" t="s">
         <v>7</v>
       </c>
@@ -2413,7 +2407,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B41" s="6" t="s">
         <v>7</v>
       </c>
@@ -2436,7 +2430,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B42" s="6" t="s">
         <v>7</v>
       </c>
@@ -2459,7 +2453,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B43" s="6" t="s">
         <v>7</v>
       </c>
@@ -2482,7 +2476,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B44" s="6" t="s">
         <v>35</v>
       </c>
@@ -2505,7 +2499,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B45" s="9" t="s">
         <v>37</v>
       </c>
@@ -2528,7 +2522,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B46" s="6" t="s">
         <v>7</v>
       </c>
@@ -2551,7 +2545,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B47" s="6" t="s">
         <v>7</v>
       </c>
@@ -2574,7 +2568,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B48" s="6" t="s">
         <v>7</v>
       </c>
@@ -2597,7 +2591,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B49" s="6" t="s">
         <v>7</v>
       </c>
@@ -2620,7 +2614,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B50" s="6" t="s">
         <v>7</v>
       </c>
@@ -2643,7 +2637,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B51" s="6" t="s">
         <v>7</v>
       </c>
@@ -2666,7 +2660,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B52" s="6" t="s">
         <v>7</v>
       </c>
@@ -2689,7 +2683,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B53" s="6" t="s">
         <v>7</v>
       </c>
@@ -2712,7 +2706,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B54" s="6" t="s">
         <v>7</v>
       </c>
@@ -2735,7 +2729,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B55" s="6" t="s">
         <v>7</v>
       </c>
@@ -2758,7 +2752,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B56" s="6" t="s">
         <v>7</v>
       </c>
@@ -2781,7 +2775,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B57" s="6" t="s">
         <v>7</v>
       </c>
@@ -2804,7 +2798,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B58" s="6" t="s">
         <v>7</v>
       </c>
@@ -2827,7 +2821,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B59" s="6" t="s">
         <v>35</v>
       </c>
@@ -2850,7 +2844,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B60" s="9" t="s">
         <v>37</v>
       </c>
@@ -2873,7 +2867,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B61" s="6" t="s">
         <v>7</v>
       </c>
@@ -2896,7 +2890,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B62" s="6" t="s">
         <v>7</v>
       </c>
@@ -2919,7 +2913,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B63" s="6" t="s">
         <v>7</v>
       </c>
@@ -2942,7 +2936,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B64" s="6" t="s">
         <v>7</v>
       </c>
@@ -2965,7 +2959,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B65" s="6" t="s">
         <v>7</v>
       </c>
@@ -2988,7 +2982,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B66" s="6" t="s">
         <v>7</v>
       </c>
@@ -3011,7 +3005,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B67" s="6" t="s">
         <v>7</v>
       </c>
@@ -3034,7 +3028,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B68" s="6" t="s">
         <v>7</v>
       </c>
@@ -3057,7 +3051,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B69" s="6" t="s">
         <v>7</v>
       </c>
@@ -3080,7 +3074,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B70" s="6" t="s">
         <v>7</v>
       </c>
@@ -3103,7 +3097,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B71" s="6" t="s">
         <v>7</v>
       </c>
@@ -3126,7 +3120,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="72" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B72" s="6" t="s">
         <v>7</v>
       </c>
@@ -3149,7 +3143,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="73" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B73" s="6" t="s">
         <v>7</v>
       </c>
@@ -3172,7 +3166,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B74" s="6" t="s">
         <v>7</v>
       </c>
@@ -3195,7 +3189,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="75" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B75" s="6" t="s">
         <v>7</v>
       </c>
@@ -3218,7 +3212,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="76" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B76" s="6" t="s">
         <v>7</v>
       </c>
@@ -3241,7 +3235,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B77" s="6" t="s">
         <v>7</v>
       </c>
@@ -3264,7 +3258,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B78" s="6" t="s">
         <v>7</v>
       </c>
@@ -3287,7 +3281,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B79" s="6" t="s">
         <v>35</v>
       </c>
@@ -3310,7 +3304,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B80" s="9" t="s">
         <v>37</v>
       </c>
@@ -3333,7 +3327,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B81" s="6" t="s">
         <v>7</v>
       </c>
@@ -3356,7 +3350,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="82" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B82" s="6" t="s">
         <v>7</v>
       </c>
@@ -3379,7 +3373,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="83" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B83" s="6" t="s">
         <v>7</v>
       </c>
@@ -3402,7 +3396,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="84" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B84" s="6" t="s">
         <v>7</v>
       </c>
@@ -3425,7 +3419,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B85" s="6" t="s">
         <v>7</v>
       </c>
@@ -3448,7 +3442,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="86" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B86" s="6" t="s">
         <v>7</v>
       </c>
@@ -3471,7 +3465,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="87" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B87" s="6" t="s">
         <v>7</v>
       </c>
@@ -3494,7 +3488,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B88" s="6" t="s">
         <v>7</v>
       </c>
@@ -3517,7 +3511,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B89" s="6" t="s">
         <v>7</v>
       </c>
@@ -3540,7 +3534,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B90" s="6" t="s">
         <v>7</v>
       </c>
@@ -3563,7 +3557,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B91" s="6" t="s">
         <v>7</v>
       </c>
@@ -3586,7 +3580,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B92" s="6" t="s">
         <v>7</v>
       </c>
@@ -3609,7 +3603,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="93" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B93" s="6" t="s">
         <v>7</v>
       </c>
@@ -3632,7 +3626,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="94" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B94" s="6" t="s">
         <v>35</v>
       </c>
@@ -3655,7 +3649,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B95" s="9" t="s">
         <v>37</v>
       </c>
@@ -3678,7 +3672,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B96" s="6" t="s">
         <v>7</v>
       </c>
@@ -3701,7 +3695,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B97" s="6" t="s">
         <v>7</v>
       </c>
@@ -3724,7 +3718,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B98" s="6" t="s">
         <v>7</v>
       </c>
@@ -3747,7 +3741,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B99" s="6" t="s">
         <v>7</v>
       </c>
@@ -3770,7 +3764,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B100" s="6" t="s">
         <v>7</v>
       </c>
@@ -3793,7 +3787,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B101" s="6" t="s">
         <v>7</v>
       </c>
@@ -3816,7 +3810,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="102" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B102" s="6" t="s">
         <v>7</v>
       </c>
@@ -3839,7 +3833,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="103" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B103" s="6" t="s">
         <v>7</v>
       </c>
@@ -3862,7 +3856,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="104" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B104" s="6" t="s">
         <v>7</v>
       </c>
@@ -3885,7 +3879,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="105" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B105" s="6" t="s">
         <v>7</v>
       </c>
@@ -3908,7 +3902,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="106" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B106" s="6" t="s">
         <v>7</v>
       </c>
@@ -3931,7 +3925,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="107" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B107" s="6" t="s">
         <v>7</v>
       </c>
@@ -3954,7 +3948,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B108" s="6" t="s">
         <v>7</v>
       </c>
@@ -3977,7 +3971,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="109" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B109" s="6" t="s">
         <v>7</v>
       </c>
@@ -4000,7 +3994,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="110" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B110" s="6" t="s">
         <v>35</v>
       </c>
@@ -4023,7 +4017,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B111" s="9" t="s">
         <v>37</v>
       </c>
@@ -4046,7 +4040,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B112" s="18" t="s">
         <v>7</v>
       </c>
@@ -4069,7 +4063,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="113" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B113" s="18" t="s">
         <v>7</v>
       </c>
@@ -4092,7 +4086,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="114" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B114" s="18" t="s">
         <v>7</v>
       </c>
@@ -4115,7 +4109,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="115" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B115" s="18" t="s">
         <v>7</v>
       </c>
@@ -4138,7 +4132,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="116" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B116" s="18" t="s">
         <v>7</v>
       </c>
@@ -4161,7 +4155,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="117" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B117" s="18" t="s">
         <v>7</v>
       </c>
@@ -4184,7 +4178,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="118" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B118" s="18" t="s">
         <v>7</v>
       </c>
@@ -4207,7 +4201,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="119" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B119" s="18" t="s">
         <v>7</v>
       </c>
@@ -4230,7 +4224,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="120" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B120" s="18" t="s">
         <v>7</v>
       </c>
@@ -4253,7 +4247,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="121" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B121" s="18" t="s">
         <v>7</v>
       </c>
@@ -4276,7 +4270,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="122" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B122" s="18" t="s">
         <v>7</v>
       </c>
@@ -4299,7 +4293,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="123" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B123" s="18" t="s">
         <v>7</v>
       </c>
@@ -4322,7 +4316,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="124" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B124" s="18" t="s">
         <v>7</v>
       </c>
@@ -4345,7 +4339,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="125" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B125" s="18" t="s">
         <v>35</v>
       </c>
@@ -4368,7 +4362,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B126" s="23" t="s">
         <v>37</v>
       </c>
@@ -4391,7 +4385,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="127" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B127" s="6" t="s">
         <v>7</v>
       </c>
@@ -4414,7 +4408,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B128" s="6" t="s">
         <v>7</v>
       </c>
@@ -4437,7 +4431,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B129" s="6" t="s">
         <v>7</v>
       </c>
@@ -4460,7 +4454,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B130" s="6" t="s">
         <v>7</v>
       </c>
@@ -4483,7 +4477,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="131" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B131" s="6" t="s">
         <v>7</v>
       </c>
@@ -4506,7 +4500,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="132" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B132" s="6" t="s">
         <v>7</v>
       </c>
@@ -4529,7 +4523,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="133" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B133" s="6" t="s">
         <v>7</v>
       </c>
@@ -4552,7 +4546,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="134" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B134" s="6" t="s">
         <v>7</v>
       </c>
@@ -4575,7 +4569,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="135" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B135" s="6" t="s">
         <v>7</v>
       </c>
@@ -4598,7 +4592,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="136" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B136" s="6" t="s">
         <v>7</v>
       </c>
@@ -4621,7 +4615,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="137" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B137" s="6" t="s">
         <v>7</v>
       </c>
@@ -4644,7 +4638,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="138" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B138" s="6" t="s">
         <v>7</v>
       </c>
@@ -4667,7 +4661,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="139" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B139" s="6" t="s">
         <v>7</v>
       </c>
@@ -4690,7 +4684,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="140" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B140" s="6" t="s">
         <v>35</v>
       </c>
@@ -4713,7 +4707,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="141" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B141" s="9" t="s">
         <v>37</v>
       </c>
@@ -4736,7 +4730,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="142" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B142" s="6" t="s">
         <v>7</v>
       </c>
@@ -4759,7 +4753,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B143" s="6" t="s">
         <v>7</v>
       </c>
@@ -4782,7 +4776,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B144" s="6" t="s">
         <v>7</v>
       </c>
@@ -4805,7 +4799,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B145" s="6" t="s">
         <v>7</v>
       </c>
@@ -4828,7 +4822,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="146" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B146" s="6" t="s">
         <v>7</v>
       </c>
@@ -4851,7 +4845,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="147" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B147" s="6" t="s">
         <v>7</v>
       </c>
@@ -4874,7 +4868,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="148" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B148" s="6" t="s">
         <v>7</v>
       </c>
@@ -4897,7 +4891,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="149" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B149" s="6" t="s">
         <v>7</v>
       </c>
@@ -4920,7 +4914,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="150" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B150" s="6" t="s">
         <v>7</v>
       </c>
@@ -4943,7 +4937,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="151" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B151" s="6" t="s">
         <v>7</v>
       </c>
@@ -4966,7 +4960,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="152" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B152" s="6" t="s">
         <v>7</v>
       </c>
@@ -4989,7 +4983,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="153" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B153" s="6" t="s">
         <v>7</v>
       </c>
@@ -5012,7 +5006,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="154" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B154" s="6" t="s">
         <v>7</v>
       </c>
@@ -5035,7 +5029,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="155" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B155" s="6" t="s">
         <v>35</v>
       </c>
@@ -5058,7 +5052,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="156" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B156" s="9" t="s">
         <v>37</v>
       </c>
@@ -5081,7 +5075,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="157" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B157" s="18" t="s">
         <v>7</v>
       </c>
@@ -5104,7 +5098,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B158" s="18" t="s">
         <v>7</v>
       </c>
@@ -5127,7 +5121,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B159" s="18" t="s">
         <v>7</v>
       </c>
@@ -5150,7 +5144,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B160" s="18" t="s">
         <v>7</v>
       </c>
@@ -5173,7 +5167,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="161" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B161" s="18" t="s">
         <v>7</v>
       </c>
@@ -5196,7 +5190,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="162" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B162" s="18" t="s">
         <v>7</v>
       </c>
@@ -5219,7 +5213,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="163" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B163" s="18" t="s">
         <v>7</v>
       </c>
@@ -5242,7 +5236,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="164" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B164" s="18" t="s">
         <v>7</v>
       </c>
@@ -5265,7 +5259,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="165" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B165" s="18" t="s">
         <v>7</v>
       </c>
@@ -5288,7 +5282,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="166" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B166" s="18" t="s">
         <v>7</v>
       </c>
@@ -5311,7 +5305,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="167" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B167" s="18" t="s">
         <v>7</v>
       </c>
@@ -5334,7 +5328,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="168" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B168" s="18" t="s">
         <v>7</v>
       </c>
@@ -5357,7 +5351,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="169" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B169" s="18" t="s">
         <v>7</v>
       </c>
@@ -5380,7 +5374,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="170" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B170" s="18" t="s">
         <v>35</v>
       </c>
@@ -5403,7 +5397,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="171" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B171" s="23" t="s">
         <v>37</v>
       </c>
@@ -5426,7 +5420,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="172" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B172" s="6" t="s">
         <v>7</v>
       </c>
@@ -5449,7 +5443,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="173" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B173" s="6" t="s">
         <v>7</v>
       </c>
@@ -5472,7 +5466,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="174" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B174" s="6" t="s">
         <v>7</v>
       </c>
@@ -5495,7 +5489,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="175" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B175" s="6" t="s">
         <v>7</v>
       </c>
@@ -5518,7 +5512,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="176" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B176" s="6" t="s">
         <v>7</v>
       </c>
@@ -5541,7 +5535,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="177" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B177" s="6" t="s">
         <v>7</v>
       </c>
@@ -5564,7 +5558,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="178" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B178" s="6" t="s">
         <v>7</v>
       </c>
@@ -5587,7 +5581,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="179" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B179" s="6" t="s">
         <v>7</v>
       </c>
@@ -5610,7 +5604,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="180" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B180" s="6" t="s">
         <v>7</v>
       </c>
@@ -5633,7 +5627,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="181" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B181" s="6" t="s">
         <v>7</v>
       </c>
@@ -5656,7 +5650,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="182" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B182" s="6" t="s">
         <v>7</v>
       </c>
@@ -5679,7 +5673,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="183" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B183" s="6" t="s">
         <v>7</v>
       </c>
@@ -5702,7 +5696,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="184" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B184" s="6" t="s">
         <v>7</v>
       </c>
@@ -5725,7 +5719,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="185" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B185" s="6" t="s">
         <v>35</v>
       </c>
@@ -5748,7 +5742,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="186" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B186" s="9" t="s">
         <v>37</v>
       </c>
@@ -5771,7 +5765,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="187" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B187" s="6" t="s">
         <v>7</v>
       </c>
@@ -5794,7 +5788,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="188" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B188" s="6" t="s">
         <v>7</v>
       </c>
@@ -5817,7 +5811,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="189" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B189" s="6" t="s">
         <v>7</v>
       </c>
@@ -5840,7 +5834,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="190" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B190" s="6" t="s">
         <v>7</v>
       </c>
@@ -5863,7 +5857,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="191" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B191" s="6" t="s">
         <v>7</v>
       </c>
@@ -5886,7 +5880,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="192" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B192" s="6" t="s">
         <v>7</v>
       </c>
@@ -5909,7 +5903,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="193" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B193" s="6" t="s">
         <v>7</v>
       </c>
@@ -5932,7 +5926,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="194" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B194" s="6" t="s">
         <v>7</v>
       </c>
@@ -5955,7 +5949,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="195" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B195" s="6" t="s">
         <v>7</v>
       </c>
@@ -5978,7 +5972,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="196" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B196" s="6" t="s">
         <v>7</v>
       </c>
@@ -6001,7 +5995,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="197" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B197" s="6" t="s">
         <v>7</v>
       </c>
@@ -6024,7 +6018,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="198" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B198" s="6" t="s">
         <v>7</v>
       </c>
@@ -6047,7 +6041,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="199" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B199" s="6" t="s">
         <v>7</v>
       </c>
@@ -6070,7 +6064,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="200" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B200" s="6" t="s">
         <v>35</v>
       </c>
@@ -6093,7 +6087,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="201" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B201" s="9" t="s">
         <v>37</v>
       </c>
@@ -6116,7 +6110,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="202" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B202" s="6" t="s">
         <v>7</v>
       </c>
@@ -6139,7 +6133,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="203" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B203" s="6" t="s">
         <v>7</v>
       </c>
@@ -6162,7 +6156,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="204" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B204" s="6" t="s">
         <v>7</v>
       </c>
@@ -6185,7 +6179,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="205" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B205" s="6" t="s">
         <v>7</v>
       </c>
@@ -6208,7 +6202,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="206" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B206" s="6" t="s">
         <v>7</v>
       </c>
@@ -6231,7 +6225,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="207" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B207" s="6" t="s">
         <v>7</v>
       </c>
@@ -6254,7 +6248,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="208" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B208" s="6" t="s">
         <v>7</v>
       </c>
@@ -6277,7 +6271,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="209" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B209" s="6" t="s">
         <v>7</v>
       </c>
@@ -6300,7 +6294,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="210" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B210" s="6" t="s">
         <v>7</v>
       </c>
@@ -6323,7 +6317,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="211" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B211" s="6" t="s">
         <v>7</v>
       </c>
@@ -6346,7 +6340,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="212" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B212" s="6" t="s">
         <v>7</v>
       </c>
@@ -6369,7 +6363,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="213" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B213" s="6" t="s">
         <v>7</v>
       </c>
@@ -6392,7 +6386,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="214" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B214" s="6" t="s">
         <v>7</v>
       </c>
@@ -6415,7 +6409,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="215" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B215" s="6" t="s">
         <v>35</v>
       </c>
@@ -6438,7 +6432,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="216" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B216" s="9" t="s">
         <v>37</v>
       </c>
@@ -6461,7 +6455,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="217" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B217" s="6" t="s">
         <v>7</v>
       </c>
@@ -6484,7 +6478,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="218" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B218" s="6" t="s">
         <v>7</v>
       </c>
@@ -6507,7 +6501,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="219" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B219" s="6" t="s">
         <v>7</v>
       </c>
@@ -6530,7 +6524,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="220" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B220" s="6" t="s">
         <v>7</v>
       </c>
@@ -6553,7 +6547,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="221" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B221" s="6" t="s">
         <v>7</v>
       </c>
@@ -6576,7 +6570,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="222" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B222" s="6" t="s">
         <v>7</v>
       </c>
@@ -6599,7 +6593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="223" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B223" s="6" t="s">
         <v>7</v>
       </c>
@@ -6622,7 +6616,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="224" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B224" s="6" t="s">
         <v>7</v>
       </c>
@@ -6645,7 +6639,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="225" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B225" s="6" t="s">
         <v>7</v>
       </c>
@@ -6668,7 +6662,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="226" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B226" s="6" t="s">
         <v>7</v>
       </c>
@@ -6691,7 +6685,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="227" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B227" s="6" t="s">
         <v>7</v>
       </c>
@@ -6714,7 +6708,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="228" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B228" s="6" t="s">
         <v>7</v>
       </c>
@@ -6737,7 +6731,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="229" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B229" s="6" t="s">
         <v>7</v>
       </c>
@@ -6760,7 +6754,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="230" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B230" s="6" t="s">
         <v>7</v>
       </c>
@@ -6783,7 +6777,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="231" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B231" s="6" t="s">
         <v>7</v>
       </c>
@@ -6806,7 +6800,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="232" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B232" s="6" t="s">
         <v>7</v>
       </c>
@@ -6829,7 +6823,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="233" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B233" s="6" t="s">
         <v>7</v>
       </c>
@@ -6852,7 +6846,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="234" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B234" s="6" t="s">
         <v>7</v>
       </c>
@@ -6875,7 +6869,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="235" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B235" s="6" t="s">
         <v>7</v>
       </c>
@@ -6898,7 +6892,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="236" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B236" s="6" t="s">
         <v>35</v>
       </c>
@@ -6921,7 +6915,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="237" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B237" s="9" t="s">
         <v>37</v>
       </c>
@@ -6944,7 +6938,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="238" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B238" s="6" t="s">
         <v>7</v>
       </c>
@@ -6967,7 +6961,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="239" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B239" s="6" t="s">
         <v>7</v>
       </c>
@@ -6990,7 +6984,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="240" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B240" s="6" t="s">
         <v>7</v>
       </c>
@@ -7013,7 +7007,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="241" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B241" s="6" t="s">
         <v>7</v>
       </c>
@@ -7036,7 +7030,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="242" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B242" s="6" t="s">
         <v>7</v>
       </c>
@@ -7059,7 +7053,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="243" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B243" s="6" t="s">
         <v>7</v>
       </c>
@@ -7082,7 +7076,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="244" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B244" s="6" t="s">
         <v>7</v>
       </c>
@@ -7105,7 +7099,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="245" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B245" s="6" t="s">
         <v>7</v>
       </c>
@@ -7128,7 +7122,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="246" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B246" s="6" t="s">
         <v>7</v>
       </c>
@@ -7151,7 +7145,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="247" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B247" s="6" t="s">
         <v>7</v>
       </c>
@@ -7174,7 +7168,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="248" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B248" s="6" t="s">
         <v>7</v>
       </c>
@@ -7197,7 +7191,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="249" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B249" s="6" t="s">
         <v>7</v>
       </c>
@@ -7220,7 +7214,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="250" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B250" s="6" t="s">
         <v>7</v>
       </c>
@@ -7243,7 +7237,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="251" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B251" s="6" t="s">
         <v>35</v>
       </c>
@@ -7266,7 +7260,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="252" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B252" s="9" t="s">
         <v>37</v>
       </c>
@@ -7289,7 +7283,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="253" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B253" s="6" t="s">
         <v>7</v>
       </c>
@@ -7312,7 +7306,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="254" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B254" s="6" t="s">
         <v>7</v>
       </c>
@@ -7335,7 +7329,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="255" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B255" s="6" t="s">
         <v>7</v>
       </c>
@@ -7358,7 +7352,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B256" s="6" t="s">
         <v>7</v>
       </c>
@@ -7381,7 +7375,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="257" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B257" s="6" t="s">
         <v>7</v>
       </c>
@@ -7404,7 +7398,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="258" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B258" s="6" t="s">
         <v>7</v>
       </c>
@@ -7427,7 +7421,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="259" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B259" s="6" t="s">
         <v>7</v>
       </c>
@@ -7450,7 +7444,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="260" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B260" s="6" t="s">
         <v>7</v>
       </c>
@@ -7473,7 +7467,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="261" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B261" s="6" t="s">
         <v>7</v>
       </c>
@@ -7496,7 +7490,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="262" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B262" s="6" t="s">
         <v>7</v>
       </c>
@@ -7519,7 +7513,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="263" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B263" s="6" t="s">
         <v>7</v>
       </c>
@@ -7542,7 +7536,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="264" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B264" s="6" t="s">
         <v>7</v>
       </c>
@@ -7565,7 +7559,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="265" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B265" s="6" t="s">
         <v>7</v>
       </c>
@@ -7588,7 +7582,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="266" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B266" s="6" t="s">
         <v>35</v>
       </c>
@@ -7611,7 +7605,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="267" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B267" s="9" t="s">
         <v>37</v>
       </c>
@@ -7634,7 +7628,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="268" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B268" s="6" t="s">
         <v>7</v>
       </c>
@@ -7657,7 +7651,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="269" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B269" s="6" t="s">
         <v>7</v>
       </c>
@@ -7680,7 +7674,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="270" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B270" s="6" t="s">
         <v>7</v>
       </c>
@@ -7703,7 +7697,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="271" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B271" s="6" t="s">
         <v>7</v>
       </c>
@@ -7726,7 +7720,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="272" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B272" s="6" t="s">
         <v>7</v>
       </c>
@@ -7749,7 +7743,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="273" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B273" s="6" t="s">
         <v>7</v>
       </c>
@@ -7772,7 +7766,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="274" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B274" s="6" t="s">
         <v>7</v>
       </c>
@@ -7795,7 +7789,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="275" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B275" s="6" t="s">
         <v>7</v>
       </c>
@@ -7818,7 +7812,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="276" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B276" s="6" t="s">
         <v>7</v>
       </c>
@@ -7841,7 +7835,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="277" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B277" s="6" t="s">
         <v>7</v>
       </c>
@@ -7864,7 +7858,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="278" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B278" s="6" t="s">
         <v>7</v>
       </c>
@@ -7887,7 +7881,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="279" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B279" s="6" t="s">
         <v>7</v>
       </c>
@@ -7910,7 +7904,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="280" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B280" s="6" t="s">
         <v>7</v>
       </c>
@@ -7933,7 +7927,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="281" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B281" s="6" t="s">
         <v>35</v>
       </c>
@@ -7956,7 +7950,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="282" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B282" s="9" t="s">
         <v>37</v>
       </c>
@@ -7989,29 +7983,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="98a12f7c-940c-464b-b7a9-0dfd09fcf3dd">
-      <UserInfo>
-        <DisplayName>Koningsveld M. van (Mark)</DisplayName>
-        <AccountId>12</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002B7D1467855757499D73586B34C0451E" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e2ef9d4e765120eae83da37647ae68bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8b95fd7e-a044-46e4-8f14-dc6c4da074b9" xmlns:ns3="98a12f7c-940c-464b-b7a9-0dfd09fcf3dd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f0014768a654eb2c7c740b61289350db" ns2:_="" ns3:_="">
     <xsd:import namespace="8b95fd7e-a044-46e4-8f14-dc6c4da074b9"/>
@@ -8190,25 +8161,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715B77A6-271B-4A4F-9B00-40F94C9838DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="98a12f7c-940c-464b-b7a9-0dfd09fcf3dd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCA18FE1-8743-4828-9330-4950E3550AAE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="98a12f7c-940c-464b-b7a9-0dfd09fcf3dd">
+      <UserInfo>
+        <DisplayName>Koningsveld M. van (Mark)</DisplayName>
+        <AccountId>12</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A67121CF-6185-4ED8-8756-2374E4B5900A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8225,4 +8201,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCA18FE1-8743-4828-9330-4950E3550AAE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715B77A6-271B-4A4F-9B00-40F94C9838DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="98a12f7c-940c-464b-b7a9-0dfd09fcf3dd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>